--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H2">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I2">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J2">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8686949999999999</v>
+        <v>0.6746743333333334</v>
       </c>
       <c r="N2">
-        <v>2.606085</v>
+        <v>2.024023</v>
       </c>
       <c r="O2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="P2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="Q2">
-        <v>13.54866700919</v>
+        <v>5.655478514071</v>
       </c>
       <c r="R2">
-        <v>121.93800308271</v>
+        <v>50.899306626639</v>
       </c>
       <c r="S2">
-        <v>0.04244191690428918</v>
+        <v>0.02317658772267044</v>
       </c>
       <c r="T2">
-        <v>0.0424419169042892</v>
+        <v>0.02317658772267044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H3">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I3">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J3">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.435647</v>
       </c>
       <c r="O3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="P3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
       <c r="Q3">
-        <v>69.85002686252467</v>
+        <v>37.541575827519</v>
       </c>
       <c r="R3">
-        <v>628.650241762722</v>
+        <v>337.874182447671</v>
       </c>
       <c r="S3">
-        <v>0.2188089082011379</v>
+        <v>0.1538482770731034</v>
       </c>
       <c r="T3">
-        <v>0.2188089082011379</v>
+        <v>0.1538482770731034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H4">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I4">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J4">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.172517</v>
       </c>
       <c r="O4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="P4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="Q4">
-        <v>68.482051240038</v>
+        <v>36.806344033509</v>
       </c>
       <c r="R4">
-        <v>616.338461160342</v>
+        <v>331.257096301581</v>
       </c>
       <c r="S4">
-        <v>0.2145236521196878</v>
+        <v>0.1508352403993767</v>
       </c>
       <c r="T4">
-        <v>0.2145236521196879</v>
+        <v>0.1508352403993767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>19.198594</v>
       </c>
       <c r="I5">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J5">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8686949999999999</v>
+        <v>0.6746743333333334</v>
       </c>
       <c r="N5">
-        <v>2.606085</v>
+        <v>2.024023</v>
       </c>
       <c r="O5">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="P5">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="Q5">
-        <v>5.559240871609999</v>
+        <v>4.317599535962445</v>
       </c>
       <c r="R5">
-        <v>50.03316784448999</v>
+        <v>38.858395823662</v>
       </c>
       <c r="S5">
-        <v>0.01741461643154706</v>
+        <v>0.0176938563461296</v>
       </c>
       <c r="T5">
-        <v>0.01741461643154707</v>
+        <v>0.01769385634612961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.198594</v>
       </c>
       <c r="I6">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J6">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.435647</v>
       </c>
       <c r="O6">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="P6">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
       <c r="Q6">
         <v>28.66061465336866</v>
@@ -818,10 +818,10 @@
         <v>257.945531880318</v>
       </c>
       <c r="S6">
-        <v>0.08978089318447635</v>
+        <v>0.1174534123057431</v>
       </c>
       <c r="T6">
-        <v>0.08978089318447637</v>
+        <v>0.1174534123057432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.198594</v>
       </c>
       <c r="I7">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J7">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>13.172517</v>
       </c>
       <c r="O7">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="P7">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="Q7">
         <v>28.099311760122</v>
@@ -880,10 +880,10 @@
         <v>252.893805841098</v>
       </c>
       <c r="S7">
-        <v>0.08802258214641236</v>
+        <v>0.1151531496998552</v>
       </c>
       <c r="T7">
-        <v>0.08802258214641237</v>
+        <v>0.1151531496998552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>32.356018</v>
       </c>
       <c r="I8">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J8">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8686949999999999</v>
+        <v>0.6746743333333334</v>
       </c>
       <c r="N8">
-        <v>2.606085</v>
+        <v>2.024023</v>
       </c>
       <c r="O8">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="P8">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="Q8">
-        <v>9.369170352169998</v>
+        <v>7.276591624490445</v>
       </c>
       <c r="R8">
-        <v>84.32253316952999</v>
+        <v>65.489324620414</v>
       </c>
       <c r="S8">
-        <v>0.02934942229218622</v>
+        <v>0.02982003444756338</v>
       </c>
       <c r="T8">
-        <v>0.02934942229218622</v>
+        <v>0.02982003444756338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>32.356018</v>
       </c>
       <c r="I9">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J9">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>13.435647</v>
       </c>
       <c r="O9">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="P9">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
       <c r="Q9">
         <v>48.30267068596066</v>
@@ -1004,10 +1004,10 @@
         <v>434.724036173646</v>
       </c>
       <c r="S9">
-        <v>0.1513106738927337</v>
+        <v>0.1979480748812151</v>
       </c>
       <c r="T9">
-        <v>0.1513106738927337</v>
+        <v>0.1979480748812151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>32.356018</v>
       </c>
       <c r="I10">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J10">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>13.172517</v>
       </c>
       <c r="O10">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="P10">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="Q10">
         <v>47.35668857303399</v>
@@ -1066,10 +1066,10 @@
         <v>426.210197157306</v>
       </c>
       <c r="S10">
-        <v>0.1483473348275294</v>
+        <v>0.1940713671243431</v>
       </c>
       <c r="T10">
-        <v>0.1483473348275294</v>
+        <v>0.1940713671243431</v>
       </c>
     </row>
   </sheetData>
